--- a/Log.xlsx
+++ b/Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thijs\OneDrive\Bureaublad\School\Leerjaar 2\Project 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1145a76c0fce5f3/Documenten/Leerjaar 2/Project 5/Project-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA3381B-3A3F-446C-8DC8-E169D2E27901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{2EA3381B-3A3F-446C-8DC8-E169D2E27901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05A4E7D-9B9E-4A32-8C1D-C7A7E80AC97C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="14">
   <si>
     <t>Naam:</t>
   </si>
@@ -65,12 +65,27 @@
   </si>
   <si>
     <t>Thijs</t>
+  </si>
+  <si>
+    <t>Heeft aan api migraties gewerkt met thijs, de datbase aangemaakt  verder controller aangemaakt van de oefeningen ook de model hier van is aangemaakt</t>
+  </si>
+  <si>
+    <t>Heeft aan api migraties gewerkt met wiljan, de datbase aangemaakt  verder controller aangemaakt van de prestaties ook de model hier van is aangemaakt</t>
+  </si>
+  <si>
+    <t>heeft informatie op gezocht teven ook toegevoegd en geimplementeerd over hoe je foto´s kan toevoegen aan wpf</t>
+  </si>
+  <si>
+    <t>informatie opzoeken hoe je foto kan toevoegen aan wpf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aan de Api werken </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,16 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="A3:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" customWidth="1"/>
+    <col min="4" max="4" width="126.88671875" customWidth="1"/>
+    <col min="5" max="5" width="153.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -455,6 +473,12 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -463,6 +487,12 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -470,6 +500,12 @@
       </c>
       <c r="C6" t="s">
         <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -566,7 +602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -807,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1004,10 +1040,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
